--- a/wwwroot/Uploads/coursesList .xlsx
+++ b/wwwroot/Uploads/coursesList .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\faculty materials\level 3\First term\Visual programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdo\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CD1E47-F4E0-4C03-8EF9-FC29962EBE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C77F04-B7B7-4C0A-B034-0095E3068406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{424EB014-6C05-4543-A0AF-5843EE9F72FD}"/>
+    <workbookView xWindow="638" yWindow="3437" windowWidth="19563" windowHeight="10352" xr2:uid="{424EB014-6C05-4543-A0AF-5843EE9F72FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,52 +47,52 @@
     <t xml:space="preserve">Hours </t>
   </si>
   <si>
-    <t>IT-1-3</t>
-  </si>
-  <si>
     <t>Network Fundamentals</t>
   </si>
   <si>
-    <t>IT-1-2</t>
-  </si>
-  <si>
     <t>Data Communication</t>
   </si>
   <si>
     <t>Software Engineering</t>
   </si>
   <si>
-    <t>CS-2-3</t>
-  </si>
-  <si>
-    <t>CS-2-2</t>
-  </si>
-  <si>
     <t>Visual Programming</t>
   </si>
   <si>
-    <t>CS-2-1</t>
-  </si>
-  <si>
     <t>Probability And Statistics</t>
   </si>
   <si>
-    <t>CS-1-3</t>
-  </si>
-  <si>
     <t>Object Oriented Programming</t>
   </si>
   <si>
-    <t>CS-1-2</t>
-  </si>
-  <si>
     <t>Programming Fundamentals</t>
   </si>
   <si>
-    <t>CS-1-1</t>
-  </si>
-  <si>
     <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>IT-3-3</t>
+  </si>
+  <si>
+    <t>IT-3-1</t>
+  </si>
+  <si>
+    <t>CS-3-3</t>
+  </si>
+  <si>
+    <t>CS-3-1</t>
+  </si>
+  <si>
+    <t>CS-3-2</t>
+  </si>
+  <si>
+    <t>CS-3-4</t>
+  </si>
+  <si>
+    <t>CS-3-5</t>
+  </si>
+  <si>
+    <t>CS-3-6</t>
   </si>
 </sst>
 </file>
@@ -450,15 +450,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="34.33203125" style="1"/>
+    <col min="1" max="16384" width="34.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,89 +469,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
